--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Hp-Itgam.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Hp-Itgam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G2">
+        <v>0.5862096666666666</v>
+      </c>
+      <c r="H2">
+        <v>1.758629</v>
+      </c>
+      <c r="I2">
+        <v>0.004018635577031636</v>
+      </c>
+      <c r="J2">
+        <v>0.004018635577031636</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G2">
-        <v>0.02140866666666667</v>
-      </c>
-      <c r="H2">
-        <v>0.06422600000000001</v>
-      </c>
-      <c r="I2">
-        <v>0.0001839850293375998</v>
-      </c>
-      <c r="J2">
-        <v>0.0001839850293375997</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M2">
-        <v>0.01571566666666667</v>
+        <v>1.180996</v>
       </c>
       <c r="N2">
-        <v>0.047147</v>
+        <v>3.542988</v>
       </c>
       <c r="O2">
-        <v>4.352450124452221E-05</v>
+        <v>0.002164165694647767</v>
       </c>
       <c r="P2">
-        <v>4.352450124452222E-05</v>
+        <v>0.002164165694647767</v>
       </c>
       <c r="Q2">
-        <v>0.0003364514691111112</v>
+        <v>0.6923112714946665</v>
       </c>
       <c r="R2">
-        <v>0.003028063222000001</v>
+        <v>6.230801443452</v>
       </c>
       <c r="S2">
-        <v>8.007856638377817E-09</v>
+        <v>8.696993255102901E-06</v>
       </c>
       <c r="T2">
-        <v>8.007856638377817E-09</v>
+        <v>8.696993255102901E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.02140866666666667</v>
+        <v>0.5862096666666666</v>
       </c>
       <c r="H3">
-        <v>0.06422600000000001</v>
+        <v>1.758629</v>
       </c>
       <c r="I3">
-        <v>0.0001839850293375998</v>
+        <v>0.004018635577031636</v>
       </c>
       <c r="J3">
-        <v>0.0001839850293375997</v>
+        <v>0.004018635577031636</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>121.5707266666667</v>
+        <v>0.01571566666666667</v>
       </c>
       <c r="N3">
-        <v>364.71218</v>
+        <v>0.047147</v>
       </c>
       <c r="O3">
-        <v>0.3366898367298536</v>
+        <v>2.87988330769278E-05</v>
       </c>
       <c r="P3">
-        <v>0.3366898367298536</v>
+        <v>2.87988330769278E-05</v>
       </c>
       <c r="Q3">
-        <v>2.602667163631111</v>
+        <v>0.009212675718111111</v>
       </c>
       <c r="R3">
-        <v>23.42400447268</v>
+        <v>0.082914081463</v>
       </c>
       <c r="S3">
-        <v>6.19458894884138E-05</v>
+        <v>1.157320151799375E-07</v>
       </c>
       <c r="T3">
-        <v>6.194588948841378E-05</v>
+        <v>1.157320151799375E-07</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,25 +658,25 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.02140866666666667</v>
+        <v>0.5862096666666666</v>
       </c>
       <c r="H4">
-        <v>0.06422600000000001</v>
+        <v>1.758629</v>
       </c>
       <c r="I4">
-        <v>0.0001839850293375998</v>
+        <v>0.004018635577031636</v>
       </c>
       <c r="J4">
-        <v>0.0001839850293375997</v>
+        <v>0.004018635577031636</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>159.017985</v>
+        <v>209.770696</v>
       </c>
       <c r="N4">
-        <v>477.053955</v>
+        <v>629.312088</v>
       </c>
       <c r="O4">
-        <v>0.4403999291174782</v>
+        <v>0.3844031173903938</v>
       </c>
       <c r="P4">
-        <v>0.4403999291174782</v>
+        <v>0.3844031173903938</v>
       </c>
       <c r="Q4">
-        <v>3.404363034870001</v>
+        <v>122.9696097785947</v>
       </c>
       <c r="R4">
-        <v>30.63926731383</v>
+        <v>1106.726488007352</v>
       </c>
       <c r="S4">
-        <v>8.102699387895608E-05</v>
+        <v>0.001544776043466905</v>
       </c>
       <c r="T4">
-        <v>8.102699387895607E-05</v>
+        <v>0.001544776043466905</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,25 +720,25 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.02140866666666667</v>
+        <v>0.5862096666666666</v>
       </c>
       <c r="H5">
-        <v>0.06422600000000001</v>
+        <v>1.758629</v>
       </c>
       <c r="I5">
-        <v>0.0001839850293375998</v>
+        <v>0.004018635577031636</v>
       </c>
       <c r="J5">
-        <v>0.0001839850293375997</v>
+        <v>0.004018635577031636</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,33 +747,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>80.47189100000001</v>
+        <v>196.552851</v>
       </c>
       <c r="N5">
-        <v>241.415673</v>
+        <v>589.658553</v>
       </c>
       <c r="O5">
-        <v>0.2228667096514236</v>
+        <v>0.3601815224771414</v>
       </c>
       <c r="P5">
-        <v>0.2228667096514236</v>
+        <v>0.3601815224771414</v>
       </c>
       <c r="Q5">
-        <v>1.722795890455334</v>
+        <v>115.221181267093</v>
       </c>
       <c r="R5">
-        <v>15.505163014098</v>
+        <v>1036.990631403837</v>
       </c>
       <c r="S5">
-        <v>4.100413811359151E-05</v>
+        <v>0.00144743828041606</v>
       </c>
       <c r="T5">
-        <v>4.10041381135915E-05</v>
+        <v>0.00144743828041606</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>2.726732</v>
+        <v>0.5862096666666666</v>
       </c>
       <c r="H6">
-        <v>8.180195999999999</v>
+        <v>1.758629</v>
       </c>
       <c r="I6">
-        <v>0.02343340081971968</v>
+        <v>0.004018635577031636</v>
       </c>
       <c r="J6">
-        <v>0.02343340081971967</v>
+        <v>0.004018635577031636</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.01571566666666667</v>
+        <v>138.1847226666667</v>
       </c>
       <c r="N6">
-        <v>0.047147</v>
+        <v>414.554168</v>
       </c>
       <c r="O6">
-        <v>4.352450124452221E-05</v>
+        <v>0.2532223956047401</v>
       </c>
       <c r="P6">
-        <v>4.352450124452222E-05</v>
+        <v>0.2532223956047401</v>
       </c>
       <c r="Q6">
-        <v>0.04285241120133332</v>
+        <v>81.00522021285244</v>
       </c>
       <c r="R6">
-        <v>0.385671700812</v>
+        <v>729.0469819156721</v>
       </c>
       <c r="S6">
-        <v>1.019927083141277E-06</v>
+        <v>0.001017608527878388</v>
       </c>
       <c r="T6">
-        <v>1.019927083141277E-06</v>
+        <v>0.001017608527878388</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,43 +856,43 @@
         <v>2.726732</v>
       </c>
       <c r="H7">
-        <v>8.180195999999999</v>
+        <v>8.180196</v>
       </c>
       <c r="I7">
-        <v>0.02343340081971968</v>
+        <v>0.0186925307570226</v>
       </c>
       <c r="J7">
-        <v>0.02343340081971967</v>
+        <v>0.01869253075702259</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>121.5707266666667</v>
+        <v>1.180996</v>
       </c>
       <c r="N7">
-        <v>364.71218</v>
+        <v>3.542988</v>
       </c>
       <c r="O7">
-        <v>0.3366898367298536</v>
+        <v>0.002164165694647767</v>
       </c>
       <c r="P7">
-        <v>0.3366898367298536</v>
+        <v>0.002164165694647767</v>
       </c>
       <c r="Q7">
-        <v>331.4907906652533</v>
+        <v>3.220259585072</v>
       </c>
       <c r="R7">
-        <v>2983.417115987279</v>
+        <v>28.982336265648</v>
       </c>
       <c r="S7">
-        <v>0.007889787896016636</v>
+        <v>4.045373381049655E-05</v>
       </c>
       <c r="T7">
-        <v>0.007889787896016636</v>
+        <v>4.045373381049655E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,43 +918,43 @@
         <v>2.726732</v>
       </c>
       <c r="H8">
-        <v>8.180195999999999</v>
+        <v>8.180196</v>
       </c>
       <c r="I8">
-        <v>0.02343340081971968</v>
+        <v>0.0186925307570226</v>
       </c>
       <c r="J8">
-        <v>0.02343340081971967</v>
+        <v>0.01869253075702259</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>159.017985</v>
+        <v>0.01571566666666667</v>
       </c>
       <c r="N8">
-        <v>477.053955</v>
+        <v>0.047147</v>
       </c>
       <c r="O8">
-        <v>0.4403999291174782</v>
+        <v>2.87988330769278E-05</v>
       </c>
       <c r="P8">
-        <v>0.4403999291174782</v>
+        <v>2.87988330769278E-05</v>
       </c>
       <c r="Q8">
-        <v>433.59942827502</v>
+        <v>0.04285241120133333</v>
       </c>
       <c r="R8">
-        <v>3902.39485447518</v>
+        <v>0.385671700812</v>
       </c>
       <c r="S8">
-        <v>0.010320068059986</v>
+        <v>5.383230730568326E-07</v>
       </c>
       <c r="T8">
-        <v>0.010320068059986</v>
+        <v>5.383230730568325E-07</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,13 +980,13 @@
         <v>2.726732</v>
       </c>
       <c r="H9">
-        <v>8.180195999999999</v>
+        <v>8.180196</v>
       </c>
       <c r="I9">
-        <v>0.02343340081971968</v>
+        <v>0.0186925307570226</v>
       </c>
       <c r="J9">
-        <v>0.02343340081971967</v>
+        <v>0.01869253075702259</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,33 +995,33 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>80.47189100000001</v>
+        <v>209.770696</v>
       </c>
       <c r="N9">
-        <v>241.415673</v>
+        <v>629.312088</v>
       </c>
       <c r="O9">
-        <v>0.2228667096514236</v>
+        <v>0.3844031173903938</v>
       </c>
       <c r="P9">
-        <v>0.2228667096514236</v>
+        <v>0.3844031173903938</v>
       </c>
       <c r="Q9">
-        <v>219.425280290212</v>
+        <v>571.9884694454721</v>
       </c>
       <c r="R9">
-        <v>1974.827522611908</v>
+        <v>5147.896225009248</v>
       </c>
       <c r="S9">
-        <v>0.005222524936633898</v>
+        <v>0.007185467094915305</v>
       </c>
       <c r="T9">
-        <v>0.005222524936633896</v>
+        <v>0.007185467094915303</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>20.85570133333333</v>
+        <v>2.726732</v>
       </c>
       <c r="H10">
-        <v>62.567104</v>
+        <v>8.180196</v>
       </c>
       <c r="I10">
-        <v>0.1792328724349742</v>
+        <v>0.0186925307570226</v>
       </c>
       <c r="J10">
-        <v>0.1792328724349742</v>
+        <v>0.01869253075702259</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.01571566666666667</v>
+        <v>196.552851</v>
       </c>
       <c r="N10">
-        <v>0.047147</v>
+        <v>589.658553</v>
       </c>
       <c r="O10">
-        <v>4.352450124452221E-05</v>
+        <v>0.3601815224771414</v>
       </c>
       <c r="P10">
-        <v>4.352450124452222E-05</v>
+        <v>0.3601815224771414</v>
       </c>
       <c r="Q10">
-        <v>0.3277612502542222</v>
+        <v>535.9469485129321</v>
       </c>
       <c r="R10">
-        <v>2.949851252288</v>
+        <v>4823.522536616388</v>
       </c>
       <c r="S10">
-        <v>7.801021379355326E-06</v>
+        <v>0.006732704187015191</v>
       </c>
       <c r="T10">
-        <v>7.801021379355328E-06</v>
+        <v>0.006732704187015189</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,25 +1092,25 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>20.85570133333333</v>
+        <v>2.726732</v>
       </c>
       <c r="H11">
-        <v>62.567104</v>
+        <v>8.180196</v>
       </c>
       <c r="I11">
-        <v>0.1792328724349742</v>
+        <v>0.0186925307570226</v>
       </c>
       <c r="J11">
-        <v>0.1792328724349742</v>
+        <v>0.01869253075702259</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>121.5707266666667</v>
+        <v>138.1847226666667</v>
       </c>
       <c r="N11">
-        <v>364.71218</v>
+        <v>414.554168</v>
       </c>
       <c r="O11">
-        <v>0.3366898367298536</v>
+        <v>0.2532223956047401</v>
       </c>
       <c r="P11">
-        <v>0.3366898367298536</v>
+        <v>0.2532223956047401</v>
       </c>
       <c r="Q11">
-        <v>2535.442766236302</v>
+        <v>376.7927052063253</v>
       </c>
       <c r="R11">
-        <v>22818.98489612672</v>
+        <v>3391.134346856928</v>
       </c>
       <c r="S11">
-        <v>0.06034588655675415</v>
+        <v>0.004733367418208548</v>
       </c>
       <c r="T11">
-        <v>0.06034588655675415</v>
+        <v>0.004733367418208547</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,55 +1154,55 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>44.08018233333333</v>
+      </c>
+      <c r="H12">
+        <v>132.240547</v>
+      </c>
+      <c r="I12">
+        <v>0.3021823061602671</v>
+      </c>
+      <c r="J12">
+        <v>0.302182306160267</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G12">
-        <v>20.85570133333333</v>
-      </c>
-      <c r="H12">
-        <v>62.567104</v>
-      </c>
-      <c r="I12">
-        <v>0.1792328724349742</v>
-      </c>
-      <c r="J12">
-        <v>0.1792328724349742</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
       <c r="M12">
-        <v>159.017985</v>
+        <v>1.180996</v>
       </c>
       <c r="N12">
-        <v>477.053955</v>
+        <v>3.542988</v>
       </c>
       <c r="O12">
-        <v>0.4403999291174782</v>
+        <v>0.002164165694647767</v>
       </c>
       <c r="P12">
-        <v>0.4403999291174782</v>
+        <v>0.002164165694647767</v>
       </c>
       <c r="Q12">
-        <v>3316.43160178848</v>
+        <v>52.05851901493733</v>
       </c>
       <c r="R12">
-        <v>29847.88441609632</v>
+        <v>468.526671134436</v>
       </c>
       <c r="S12">
-        <v>0.07893414431588466</v>
+        <v>0.0006539725805215986</v>
       </c>
       <c r="T12">
-        <v>0.07893414431588466</v>
+        <v>0.0006539725805215984</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,60 +1216,60 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>20.85570133333333</v>
+        <v>44.08018233333333</v>
       </c>
       <c r="H13">
-        <v>62.567104</v>
+        <v>132.240547</v>
       </c>
       <c r="I13">
-        <v>0.1792328724349742</v>
+        <v>0.3021823061602671</v>
       </c>
       <c r="J13">
-        <v>0.1792328724349742</v>
+        <v>0.302182306160267</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>80.47189100000001</v>
+        <v>0.01571566666666667</v>
       </c>
       <c r="N13">
-        <v>241.415673</v>
+        <v>0.047147</v>
       </c>
       <c r="O13">
-        <v>0.2228667096514236</v>
+        <v>2.87988330769278E-05</v>
       </c>
       <c r="P13">
-        <v>0.2228667096514236</v>
+        <v>2.87988330769278E-05</v>
       </c>
       <c r="Q13">
-        <v>1678.297724424555</v>
+        <v>0.6927494521565555</v>
       </c>
       <c r="R13">
-        <v>15104.67951982099</v>
+        <v>6.234745069409</v>
       </c>
       <c r="S13">
-        <v>0.03994504054095604</v>
+        <v>8.702497793910622E-06</v>
       </c>
       <c r="T13">
-        <v>0.03994504054095604</v>
+        <v>8.702497793910621E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.04840700000000001</v>
+        <v>44.08018233333333</v>
       </c>
       <c r="H14">
-        <v>0.145221</v>
+        <v>132.240547</v>
       </c>
       <c r="I14">
-        <v>0.0004160073793391396</v>
+        <v>0.3021823061602671</v>
       </c>
       <c r="J14">
-        <v>0.0004160073793391395</v>
+        <v>0.302182306160267</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.01571566666666667</v>
+        <v>209.770696</v>
       </c>
       <c r="N14">
-        <v>0.047147</v>
+        <v>629.312088</v>
       </c>
       <c r="O14">
-        <v>4.352450124452221E-05</v>
+        <v>0.3844031173903938</v>
       </c>
       <c r="P14">
-        <v>4.352450124452222E-05</v>
+        <v>0.3844031173903938</v>
       </c>
       <c r="Q14">
-        <v>0.0007607482763333334</v>
+        <v>9246.730527870239</v>
       </c>
       <c r="R14">
-        <v>0.006846734487000001</v>
+        <v>83220.57475083214</v>
       </c>
       <c r="S14">
-        <v>1.81065136997768E-08</v>
+        <v>0.1161598205082251</v>
       </c>
       <c r="T14">
-        <v>1.81065136997768E-08</v>
+        <v>0.1161598205082251</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,25 +1340,25 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.04840700000000001</v>
+        <v>44.08018233333333</v>
       </c>
       <c r="H15">
-        <v>0.145221</v>
+        <v>132.240547</v>
       </c>
       <c r="I15">
-        <v>0.0004160073793391396</v>
+        <v>0.3021823061602671</v>
       </c>
       <c r="J15">
-        <v>0.0004160073793391395</v>
+        <v>0.302182306160267</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,33 +1367,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>121.5707266666667</v>
+        <v>196.552851</v>
       </c>
       <c r="N15">
-        <v>364.71218</v>
+        <v>589.658553</v>
       </c>
       <c r="O15">
-        <v>0.3366898367298536</v>
+        <v>0.3601815224771414</v>
       </c>
       <c r="P15">
-        <v>0.3366898367298536</v>
+        <v>0.3601815224771414</v>
       </c>
       <c r="Q15">
-        <v>5.884874165753334</v>
+        <v>8664.085510216499</v>
       </c>
       <c r="R15">
-        <v>52.96386749178001</v>
+        <v>77976.76959194848</v>
       </c>
       <c r="S15">
-        <v>0.0001400654566281092</v>
+        <v>0.1088404830984586</v>
       </c>
       <c r="T15">
-        <v>0.0001400654566281092</v>
+        <v>0.1088404830984586</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,25 +1402,25 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.04840700000000001</v>
+        <v>44.08018233333333</v>
       </c>
       <c r="H16">
-        <v>0.145221</v>
+        <v>132.240547</v>
       </c>
       <c r="I16">
-        <v>0.0004160073793391396</v>
+        <v>0.3021823061602671</v>
       </c>
       <c r="J16">
-        <v>0.0004160073793391395</v>
+        <v>0.302182306160267</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>159.017985</v>
+        <v>138.1847226666667</v>
       </c>
       <c r="N16">
-        <v>477.053955</v>
+        <v>414.554168</v>
       </c>
       <c r="O16">
-        <v>0.4403999291174782</v>
+        <v>0.2532223956047401</v>
       </c>
       <c r="P16">
-        <v>0.4403999291174782</v>
+        <v>0.2532223956047401</v>
       </c>
       <c r="Q16">
-        <v>7.697583599895001</v>
+        <v>6091.207770827766</v>
       </c>
       <c r="R16">
-        <v>69.27825239905501</v>
+        <v>54820.86993744989</v>
       </c>
       <c r="S16">
-        <v>0.0001832096203733049</v>
+        <v>0.07651932747526785</v>
       </c>
       <c r="T16">
-        <v>0.0001832096203733049</v>
+        <v>0.07651932747526784</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1473,51 +1473,51 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.04840700000000001</v>
+        <v>0.048407</v>
       </c>
       <c r="H17">
         <v>0.145221</v>
       </c>
       <c r="I17">
-        <v>0.0004160073793391396</v>
+        <v>0.0003318438835775546</v>
       </c>
       <c r="J17">
-        <v>0.0004160073793391395</v>
+        <v>0.0003318438835775546</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>80.47189100000001</v>
+        <v>1.180996</v>
       </c>
       <c r="N17">
-        <v>241.415673</v>
+        <v>3.542988</v>
       </c>
       <c r="O17">
-        <v>0.2228667096514236</v>
+        <v>0.002164165694647767</v>
       </c>
       <c r="P17">
-        <v>0.2228667096514236</v>
+        <v>0.002164165694647767</v>
       </c>
       <c r="Q17">
-        <v>3.895402827637001</v>
+        <v>0.057168473372</v>
       </c>
       <c r="R17">
-        <v>35.05862544873301</v>
+        <v>0.5145162603479999</v>
       </c>
       <c r="S17">
-        <v>9.271419582402566E-05</v>
+        <v>7.181651488172311E-07</v>
       </c>
       <c r="T17">
-        <v>9.271419582402565E-05</v>
+        <v>7.181651488172311E-07</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1529,22 +1529,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>83.30412800000001</v>
+        <v>0.048407</v>
       </c>
       <c r="H18">
-        <v>249.912384</v>
+        <v>0.145221</v>
       </c>
       <c r="I18">
-        <v>0.7159115825688895</v>
+        <v>0.0003318438835775546</v>
       </c>
       <c r="J18">
-        <v>0.7159115825688894</v>
+        <v>0.0003318438835775546</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1559,27 +1559,27 @@
         <v>0.047147</v>
       </c>
       <c r="O18">
-        <v>4.352450124452221E-05</v>
+        <v>2.87988330769278E-05</v>
       </c>
       <c r="P18">
-        <v>4.352450124452222E-05</v>
+        <v>2.87988330769278E-05</v>
       </c>
       <c r="Q18">
-        <v>1.309179907605333</v>
+        <v>0.0007607482763333333</v>
       </c>
       <c r="R18">
-        <v>11.782619168448</v>
+        <v>0.006846734487</v>
       </c>
       <c r="S18">
-        <v>3.11596945664875E-05</v>
+        <v>9.556716610749458E-09</v>
       </c>
       <c r="T18">
-        <v>3.11596945664875E-05</v>
+        <v>9.556716610749458E-09</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1591,22 +1591,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>83.30412800000001</v>
+        <v>0.048407</v>
       </c>
       <c r="H19">
-        <v>249.912384</v>
+        <v>0.145221</v>
       </c>
       <c r="I19">
-        <v>0.7159115825688895</v>
+        <v>0.0003318438835775546</v>
       </c>
       <c r="J19">
-        <v>0.7159115825688894</v>
+        <v>0.0003318438835775546</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,33 +1615,33 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>121.5707266666667</v>
+        <v>209.770696</v>
       </c>
       <c r="N19">
-        <v>364.71218</v>
+        <v>629.312088</v>
       </c>
       <c r="O19">
-        <v>0.3366898367298536</v>
+        <v>0.3844031173903938</v>
       </c>
       <c r="P19">
-        <v>0.3366898367298536</v>
+        <v>0.3844031173903938</v>
       </c>
       <c r="Q19">
-        <v>10127.34337529301</v>
+        <v>10.154370081272</v>
       </c>
       <c r="R19">
-        <v>91146.09037763711</v>
+        <v>91.389330731448</v>
       </c>
       <c r="S19">
-        <v>0.2410401538481305</v>
+        <v>0.0001275618233341469</v>
       </c>
       <c r="T19">
-        <v>0.2410401538481305</v>
+        <v>0.0001275618233341469</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1653,22 +1653,22 @@
         <v>24</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>83.30412800000001</v>
+        <v>0.048407</v>
       </c>
       <c r="H20">
-        <v>249.912384</v>
+        <v>0.145221</v>
       </c>
       <c r="I20">
-        <v>0.7159115825688895</v>
+        <v>0.0003318438835775546</v>
       </c>
       <c r="J20">
-        <v>0.7159115825688894</v>
+        <v>0.0003318438835775546</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,33 +1677,33 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>159.017985</v>
+        <v>196.552851</v>
       </c>
       <c r="N20">
-        <v>477.053955</v>
+        <v>589.658553</v>
       </c>
       <c r="O20">
-        <v>0.4403999291174782</v>
+        <v>0.3601815224771414</v>
       </c>
       <c r="P20">
-        <v>0.4403999291174782</v>
+        <v>0.3601815224771414</v>
       </c>
       <c r="Q20">
-        <v>13246.85457674208</v>
+        <v>9.514533858357</v>
       </c>
       <c r="R20">
-        <v>119221.6911906787</v>
+        <v>85.630804725213</v>
       </c>
       <c r="S20">
-        <v>0.3152874102177206</v>
+        <v>0.0001195240352116909</v>
       </c>
       <c r="T20">
-        <v>0.3152874102177206</v>
+        <v>0.0001195240352116909</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1715,22 +1715,22 @@
         <v>25</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>83.30412800000001</v>
+        <v>0.048407</v>
       </c>
       <c r="H21">
-        <v>249.912384</v>
+        <v>0.145221</v>
       </c>
       <c r="I21">
-        <v>0.7159115825688895</v>
+        <v>0.0003318438835775546</v>
       </c>
       <c r="J21">
-        <v>0.7159115825688894</v>
+        <v>0.0003318438835775546</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,33 +1739,33 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>80.47189100000001</v>
+        <v>138.1847226666667</v>
       </c>
       <c r="N21">
-        <v>241.415673</v>
+        <v>414.554168</v>
       </c>
       <c r="O21">
-        <v>0.2228667096514236</v>
+        <v>0.2532223956047401</v>
       </c>
       <c r="P21">
-        <v>0.2228667096514236</v>
+        <v>0.2532223956047401</v>
       </c>
       <c r="Q21">
-        <v>6703.64070826605</v>
+        <v>6.689107870125333</v>
       </c>
       <c r="R21">
-        <v>60332.76637439444</v>
+        <v>60.20197083112799</v>
       </c>
       <c r="S21">
-        <v>0.1595528588084719</v>
+        <v>8.403030316628886E-05</v>
       </c>
       <c r="T21">
-        <v>0.1595528588084719</v>
+        <v>8.403030316628886E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,7 +1774,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1783,51 +1783,51 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>9.404539666666667</v>
+        <v>96.071327</v>
       </c>
       <c r="H22">
-        <v>28.213619</v>
+        <v>288.213981</v>
       </c>
       <c r="I22">
-        <v>0.08082215176773988</v>
+        <v>0.6585965305044555</v>
       </c>
       <c r="J22">
-        <v>0.08082215176773988</v>
+        <v>0.6585965305044555</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.01571566666666667</v>
+        <v>1.180996</v>
       </c>
       <c r="N22">
-        <v>0.047147</v>
+        <v>3.542988</v>
       </c>
       <c r="O22">
-        <v>4.352450124452221E-05</v>
+        <v>0.002164165694647767</v>
       </c>
       <c r="P22">
-        <v>4.352450124452222E-05</v>
+        <v>0.002164165694647767</v>
       </c>
       <c r="Q22">
-        <v>0.1477986105547778</v>
+        <v>113.459852901692</v>
       </c>
       <c r="R22">
-        <v>1.330187494993</v>
+        <v>1021.138676115228</v>
       </c>
       <c r="S22">
-        <v>3.517743845199958E-06</v>
+        <v>0.001425312017931784</v>
       </c>
       <c r="T22">
-        <v>3.517743845199958E-06</v>
+        <v>0.001425312017931784</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,7 +1836,7 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,51 +1845,51 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>9.404539666666667</v>
+        <v>96.071327</v>
       </c>
       <c r="H23">
-        <v>28.213619</v>
+        <v>288.213981</v>
       </c>
       <c r="I23">
-        <v>0.08082215176773988</v>
+        <v>0.6585965305044555</v>
       </c>
       <c r="J23">
-        <v>0.08082215176773988</v>
+        <v>0.6585965305044555</v>
       </c>
       <c r="K23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>121.5707266666667</v>
+        <v>0.01571566666666667</v>
       </c>
       <c r="N23">
-        <v>364.71218</v>
+        <v>0.047147</v>
       </c>
       <c r="O23">
-        <v>0.3366898367298536</v>
+        <v>2.87988330769278E-05</v>
       </c>
       <c r="P23">
-        <v>0.3366898367298536</v>
+        <v>2.87988330769278E-05</v>
       </c>
       <c r="Q23">
-        <v>1143.316721242158</v>
+        <v>1.509824951356333</v>
       </c>
       <c r="R23">
-        <v>10289.85049117942</v>
+        <v>13.588424562207</v>
       </c>
       <c r="S23">
-        <v>0.02721199708283579</v>
+        <v>1.89668115470416E-05</v>
       </c>
       <c r="T23">
-        <v>0.02721199708283579</v>
+        <v>1.89668115470416E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,7 +1898,7 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>9.404539666666667</v>
+        <v>96.071327</v>
       </c>
       <c r="H24">
-        <v>28.213619</v>
+        <v>288.213981</v>
       </c>
       <c r="I24">
-        <v>0.08082215176773988</v>
+        <v>0.6585965305044555</v>
       </c>
       <c r="J24">
-        <v>0.08082215176773988</v>
+        <v>0.6585965305044555</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,90 +1925,462 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>159.017985</v>
+        <v>209.770696</v>
       </c>
       <c r="N24">
-        <v>477.053955</v>
+        <v>629.312088</v>
       </c>
       <c r="O24">
-        <v>0.4403999291174782</v>
+        <v>0.3844031173903938</v>
       </c>
       <c r="P24">
-        <v>0.4403999291174782</v>
+        <v>0.3844031173903938</v>
       </c>
       <c r="Q24">
-        <v>1495.490947645905</v>
+        <v>20152.94913043359</v>
       </c>
       <c r="R24">
-        <v>13459.41852881315</v>
+        <v>181376.5421739023</v>
       </c>
       <c r="S24">
-        <v>0.03559406990963471</v>
+        <v>0.2531665594284103</v>
       </c>
       <c r="T24">
-        <v>0.03559406990963471</v>
+        <v>0.2531665594284103</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>96.071327</v>
+      </c>
+      <c r="H25">
+        <v>288.213981</v>
+      </c>
+      <c r="I25">
+        <v>0.6585965305044555</v>
+      </c>
+      <c r="J25">
+        <v>0.6585965305044555</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>196.552851</v>
+      </c>
+      <c r="N25">
+        <v>589.658553</v>
+      </c>
+      <c r="O25">
+        <v>0.3601815224771414</v>
+      </c>
+      <c r="P25">
+        <v>0.3601815224771414</v>
+      </c>
+      <c r="Q25">
+        <v>18883.09322120328</v>
+      </c>
+      <c r="R25">
+        <v>169947.8389908295</v>
+      </c>
+      <c r="S25">
+        <v>0.2372143010552579</v>
+      </c>
+      <c r="T25">
+        <v>0.2372143010552579</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>96.071327</v>
+      </c>
+      <c r="H26">
+        <v>288.213981</v>
+      </c>
+      <c r="I26">
+        <v>0.6585965305044555</v>
+      </c>
+      <c r="J26">
+        <v>0.6585965305044555</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>138.1847226666667</v>
+      </c>
+      <c r="N26">
+        <v>414.554168</v>
+      </c>
+      <c r="O26">
+        <v>0.2532223956047401</v>
+      </c>
+      <c r="P26">
+        <v>0.2532223956047401</v>
+      </c>
+      <c r="Q26">
+        <v>13275.58967771364</v>
+      </c>
+      <c r="R26">
+        <v>119480.3070994228</v>
+      </c>
+      <c r="S26">
+        <v>0.1667713911913085</v>
+      </c>
+      <c r="T26">
+        <v>0.1667713911913085</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>9.404539666666667</v>
-      </c>
-      <c r="H25">
-        <v>28.213619</v>
-      </c>
-      <c r="I25">
-        <v>0.08082215176773988</v>
-      </c>
-      <c r="J25">
-        <v>0.08082215176773988</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>80.47189100000001</v>
-      </c>
-      <c r="N25">
-        <v>241.415673</v>
-      </c>
-      <c r="O25">
-        <v>0.2228667096514236</v>
-      </c>
-      <c r="P25">
-        <v>0.2228667096514236</v>
-      </c>
-      <c r="Q25">
-        <v>756.8010909611764</v>
-      </c>
-      <c r="R25">
-        <v>6811.209818650588</v>
-      </c>
-      <c r="S25">
-        <v>0.01801256703142418</v>
-      </c>
-      <c r="T25">
-        <v>0.01801256703142418</v>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>2.359952666666667</v>
+      </c>
+      <c r="H27">
+        <v>7.079858</v>
+      </c>
+      <c r="I27">
+        <v>0.01617815311764565</v>
+      </c>
+      <c r="J27">
+        <v>0.01617815311764565</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M27">
+        <v>1.180996</v>
+      </c>
+      <c r="N27">
+        <v>3.542988</v>
+      </c>
+      <c r="O27">
+        <v>0.002164165694647767</v>
+      </c>
+      <c r="P27">
+        <v>0.002164165694647767</v>
+      </c>
+      <c r="Q27">
+        <v>2.787094659522666</v>
+      </c>
+      <c r="R27">
+        <v>25.083851935704</v>
+      </c>
+      <c r="S27">
+        <v>3.501220397996753E-05</v>
+      </c>
+      <c r="T27">
+        <v>3.501220397996753E-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>2.359952666666667</v>
+      </c>
+      <c r="H28">
+        <v>7.079858</v>
+      </c>
+      <c r="I28">
+        <v>0.01617815311764565</v>
+      </c>
+      <c r="J28">
+        <v>0.01617815311764565</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.01571566666666667</v>
+      </c>
+      <c r="N28">
+        <v>0.047147</v>
+      </c>
+      <c r="O28">
+        <v>2.87988330769278E-05</v>
+      </c>
+      <c r="P28">
+        <v>2.87988330769278E-05</v>
+      </c>
+      <c r="Q28">
+        <v>0.03708822945844444</v>
+      </c>
+      <c r="R28">
+        <v>0.333794065126</v>
+      </c>
+      <c r="S28">
+        <v>4.659119311280561E-07</v>
+      </c>
+      <c r="T28">
+        <v>4.659119311280561E-07</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>2.359952666666667</v>
+      </c>
+      <c r="H29">
+        <v>7.079858</v>
+      </c>
+      <c r="I29">
+        <v>0.01617815311764565</v>
+      </c>
+      <c r="J29">
+        <v>0.01617815311764565</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>209.770696</v>
+      </c>
+      <c r="N29">
+        <v>629.312088</v>
+      </c>
+      <c r="O29">
+        <v>0.3844031173903938</v>
+      </c>
+      <c r="P29">
+        <v>0.3844031173903938</v>
+      </c>
+      <c r="Q29">
+        <v>495.0489134137227</v>
+      </c>
+      <c r="R29">
+        <v>4455.440220723504</v>
+      </c>
+      <c r="S29">
+        <v>0.006218932492042106</v>
+      </c>
+      <c r="T29">
+        <v>0.006218932492042106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>2.359952666666667</v>
+      </c>
+      <c r="H30">
+        <v>7.079858</v>
+      </c>
+      <c r="I30">
+        <v>0.01617815311764565</v>
+      </c>
+      <c r="J30">
+        <v>0.01617815311764565</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>196.552851</v>
+      </c>
+      <c r="N30">
+        <v>589.658553</v>
+      </c>
+      <c r="O30">
+        <v>0.3601815224771414</v>
+      </c>
+      <c r="P30">
+        <v>0.3601815224771414</v>
+      </c>
+      <c r="Q30">
+        <v>463.855424858386</v>
+      </c>
+      <c r="R30">
+        <v>4174.698823725474</v>
+      </c>
+      <c r="S30">
+        <v>0.00582707182078192</v>
+      </c>
+      <c r="T30">
+        <v>0.00582707182078192</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>2.359952666666667</v>
+      </c>
+      <c r="H31">
+        <v>7.079858</v>
+      </c>
+      <c r="I31">
+        <v>0.01617815311764565</v>
+      </c>
+      <c r="J31">
+        <v>0.01617815311764565</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>138.1847226666667</v>
+      </c>
+      <c r="N31">
+        <v>414.554168</v>
+      </c>
+      <c r="O31">
+        <v>0.2532223956047401</v>
+      </c>
+      <c r="P31">
+        <v>0.2532223956047401</v>
+      </c>
+      <c r="Q31">
+        <v>326.1094047497937</v>
+      </c>
+      <c r="R31">
+        <v>2934.984642748144</v>
+      </c>
+      <c r="S31">
+        <v>0.004096670688910526</v>
+      </c>
+      <c r="T31">
+        <v>0.004096670688910526</v>
       </c>
     </row>
   </sheetData>
